--- a/team/recettes/sushi californien.xlsx
+++ b/team/recettes/sushi californien.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C68177DA-52AB-42B8-90D7-86B973D23435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E38EC68-C159-44B2-BFC0-A7F39B7B7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{418D22B8-3102-464E-822D-27EB2728A628}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Nom</t>
   </si>
@@ -61,42 +61,15 @@
     <t>https://www.marmiton.org/recettes/recette_sushi-californien-maki-inverse_64650.aspx</t>
   </si>
   <si>
-    <t>feuilles de nori (algues)</t>
-  </si>
-  <si>
-    <t>sésame</t>
-  </si>
-  <si>
-    <t>riz rond</t>
-  </si>
-  <si>
     <t>125g</t>
   </si>
   <si>
     <t>1c.à.s</t>
   </si>
   <si>
-    <t>sucre en poudre</t>
-  </si>
-  <si>
-    <t>vinaigre de riz</t>
-  </si>
-  <si>
     <t>1/2c.à.c</t>
   </si>
   <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>wasabi</t>
-  </si>
-  <si>
-    <t>sauce soja</t>
-  </si>
-  <si>
-    <t>avocat</t>
-  </si>
-  <si>
     <t>1/2u</t>
   </si>
   <si>
@@ -106,9 +79,6 @@
     <t>_</t>
   </si>
   <si>
-    <t>saumon fumé</t>
-  </si>
-  <si>
     <t>150g</t>
   </si>
   <si>
@@ -133,9 +103,6 @@
     <t>Saupoudrer de graines de sésame.</t>
   </si>
   <si>
-    <t>Retourner la feuille de nori (pour que le riz se retrouve à l'extérieur du rouleau) et étaler un peu wasabi.</t>
-  </si>
-  <si>
     <t>Garnir avec le concombre, l'avocat et le saumon, puis rouler pour former le rouleau (plus facile si vous poséder un makisu : natte de bambou à rouler).</t>
   </si>
   <si>
@@ -146,6 +113,36 @@
   </si>
   <si>
     <t>entrée froide</t>
+  </si>
+  <si>
+    <t>Nori (Porphyra sp.), séchée ou déshydratée</t>
+  </si>
+  <si>
+    <t>Sésame, graine</t>
+  </si>
+  <si>
+    <t>Riz thaï ou basmati, cru</t>
+  </si>
+  <si>
+    <t>Sucre blanc</t>
+  </si>
+  <si>
+    <t>Vinaigre</t>
+  </si>
+  <si>
+    <t>Sel blanc alimentaire, iodé, fluoré à 25 mg /100 g (marin, ignigène ou gemme)</t>
+  </si>
+  <si>
+    <t>Sauce soja, préemballée</t>
+  </si>
+  <si>
+    <t>Avocat, pulpe, cru</t>
+  </si>
+  <si>
+    <t>Saumon fumé</t>
+  </si>
+  <si>
+    <t>Retourner la feuille de nori (pour que le riz se retrouve à l'extérieur du rouleau).</t>
   </si>
 </sst>
 </file>
@@ -498,15 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B7855B-F443-4945-9C78-3519D14FD79A}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -523,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -537,22 +535,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -560,98 +558,90 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -660,18 +650,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -821,6 +811,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63DA3640-ECCC-4BFB-9EA1-7899F5B14211}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D674FC5-A40C-48C0-BEAA-86A2EB4AC177}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -832,14 +830,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63DA3640-ECCC-4BFB-9EA1-7899F5B14211}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/team/recettes/sushi californien.xlsx
+++ b/team/recettes/sushi californien.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E38EC68-C159-44B2-BFC0-A7F39B7B7F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE34D4-0891-476E-80AC-5AD3C45A12E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{418D22B8-3102-464E-822D-27EB2728A628}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="13548" windowHeight="8880" xr2:uid="{418D22B8-3102-464E-822D-27EB2728A628}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nom</t>
   </si>
@@ -143,6 +144,9 @@
   </si>
   <si>
     <t>Retourner la feuille de nori (pour que le riz se retrouve à l'extérieur du rouleau).</t>
+  </si>
+  <si>
+    <t>Quantite</t>
   </si>
 </sst>
 </file>
@@ -495,19 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B7855B-F443-4945-9C78-3519D14FD79A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="2" max="3" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,132 +519,162 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -650,18 +684,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,14 +845,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63DA3640-ECCC-4BFB-9EA1-7899F5B14211}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D674FC5-A40C-48C0-BEAA-86A2EB4AC177}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -830,6 +856,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63DA3640-ECCC-4BFB-9EA1-7899F5B14211}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
